--- a/data/Eksklusion_lande/Lægernes Pension_eksklusionsliste_lande.xlsx
+++ b/data/Eksklusion_lande/Lægernes Pension_eksklusionsliste_lande.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gravercentret-my.sharepoint.com/personal/anja_gravercentret_dk/Documents/Dokumenter/Python_projekter/kommune_investering/data/Eksklusion_lande/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD3831C1-63B5-3945-97CF-D6C29F0A2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB16BF32-0574-4777-98BF-6AB6C1F17CF5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FD3831C1-63B5-3945-97CF-D6C29F0A2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A8FF19-111C-4776-9683-A77EC4E27695}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9F81098-489B-644C-9170-16FFBDB5FDA9}"/>
+    <workbookView xWindow="1332" yWindow="660" windowWidth="21624" windowHeight="11244" xr2:uid="{F9F81098-489B-644C-9170-16FFBDB5FDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Afghanistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Amerikansk </t>
-  </si>
-  <si>
     <t xml:space="preserve">Angola </t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Årsag til eksklusion</t>
+  </si>
+  <si>
+    <t>Amerikansk Samoa</t>
   </si>
 </sst>
 </file>
@@ -269,10 +269,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,7 +571,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -586,10 +582,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,415 +593,415 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
